--- a/Data/Siniestros_Matrix.xlsx
+++ b/Data/Siniestros_Matrix.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aipa\Pruebas_Tecnicas\Armur\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A180AAFF-B6DC-45D3-A35E-7E083CBBB3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B88996F-2FC9-4829-9BB6-9CF35A18421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{7465CB5E-177F-4271-92A2-E874236698FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Siniestros_Matrix" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$C$34:$F$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Siniestros_Matrix!$A$1:$P$56</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="31">
   <si>
     <t>FolioSiniestro</t>
   </si>
@@ -35,9 +37,6 @@
   </si>
   <si>
     <t>Latitud</t>
-  </si>
-  <si>
-    <t>Longitud</t>
   </si>
   <si>
     <t>Distancia_Inicio_a1</t>
@@ -89,6 +88,36 @@
   </si>
   <si>
     <t>Num incidencias individuales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruta </t>
+  </si>
+  <si>
+    <t>Cantidad de Incidencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubicacion Inicial </t>
+  </si>
+  <si>
+    <t>Ubicacion Final</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>Total de Siniestros Cercas</t>
   </si>
 </sst>
 </file>
@@ -231,7 +260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +440,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -572,7 +607,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,6 +616,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -958,11 +997,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256BE515-6D50-4CCC-A046-2D4F5EC20B29}">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -997,38 +1034,35 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1039,7 +1073,7 @@
         <v>10001415</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>84723</v>
@@ -1047,7 +1081,7 @@
       <c r="E2">
         <v>25.808907705967801</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>-100.379278343942</v>
       </c>
       <c r="G2" s="3">
@@ -1089,7 +1123,7 @@
         <v>10001213</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>117041</v>
@@ -1097,7 +1131,7 @@
       <c r="E3">
         <v>25.799020874802299</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>-100.386181582737</v>
       </c>
       <c r="G3" s="3">
@@ -1139,7 +1173,7 @@
         <v>10001224</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>116400</v>
@@ -1147,7 +1181,7 @@
       <c r="E4">
         <v>25.797737896116299</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>-100.381690676285</v>
       </c>
       <c r="G4" s="3">
@@ -1189,7 +1223,7 @@
         <v>10001327</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>117888</v>
@@ -1197,7 +1231,7 @@
       <c r="E5">
         <v>25.7868206568982</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>-100.379680971478</v>
       </c>
       <c r="G5" s="3">
@@ -1239,7 +1273,7 @@
         <v>10001316</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>73533</v>
@@ -1247,7 +1281,7 @@
       <c r="E6">
         <v>25.777179260731401</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>-100.18076209068499</v>
       </c>
       <c r="G6" s="3">
@@ -1289,7 +1323,7 @@
         <v>10001122</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>81956</v>
@@ -1297,7 +1331,7 @@
       <c r="E7">
         <v>25.772846264710601</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>-100.178529379522</v>
       </c>
       <c r="G7" s="3">
@@ -1339,7 +1373,7 @@
         <v>1000125</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>68228</v>
@@ -1347,7 +1381,7 @@
       <c r="E8">
         <v>25.772148725534301</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>-100.177221100506</v>
       </c>
       <c r="G8" s="3">
@@ -1389,7 +1423,7 @@
         <v>10001117</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>107594</v>
@@ -1397,7 +1431,7 @@
       <c r="E9">
         <v>25.7695860560111</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>-100.37568222604099</v>
       </c>
       <c r="G9" s="3">
@@ -1439,7 +1473,7 @@
         <v>10001243</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>79137</v>
@@ -1447,7 +1481,7 @@
       <c r="E10">
         <v>25.756690615048001</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>-100.172353280905</v>
       </c>
       <c r="G10" s="3">
@@ -1489,7 +1523,7 @@
         <v>10001126</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>116234</v>
@@ -1497,7 +1531,7 @@
       <c r="E11">
         <v>25.748384437575702</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>-100.372651276044</v>
       </c>
       <c r="G11" s="3">
@@ -1539,7 +1573,7 @@
         <v>1000118</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>69180</v>
@@ -1547,7 +1581,7 @@
       <c r="E12">
         <v>25.741479883678998</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>-100.200263570834</v>
       </c>
       <c r="G12" s="3">
@@ -1589,7 +1623,7 @@
         <v>10001135</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>84059</v>
@@ -1597,7 +1631,7 @@
       <c r="E13">
         <v>25.740682421679399</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>-100.18367468630299</v>
       </c>
       <c r="G13" s="3">
@@ -1639,7 +1673,7 @@
         <v>10001445</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>130815</v>
@@ -1647,7 +1681,7 @@
       <c r="E14">
         <v>25.738603424278001</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>-100.40642965873199</v>
       </c>
       <c r="G14" s="3">
@@ -1689,7 +1723,7 @@
         <v>10001236</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>89949</v>
@@ -1697,7 +1731,7 @@
       <c r="E15">
         <v>25.729284265466099</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>-100.357837748777</v>
       </c>
       <c r="G15" s="3">
@@ -1739,7 +1773,7 @@
         <v>10001349</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>97066</v>
@@ -1747,7 +1781,7 @@
       <c r="E16">
         <v>25.7285764598514</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>-100.350229139126</v>
       </c>
       <c r="G16" s="3">
@@ -1789,7 +1823,7 @@
         <v>1000111</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>113518</v>
@@ -1797,7 +1831,7 @@
       <c r="E17">
         <v>25.723328320639801</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>-100.37583225261599</v>
       </c>
       <c r="G17" s="3">
@@ -1839,7 +1873,7 @@
         <v>10001111</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>79427</v>
@@ -1847,7 +1881,7 @@
       <c r="E18">
         <v>25.721607261230002</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>-100.212356592806</v>
       </c>
       <c r="G18" s="3">
@@ -1889,7 +1923,7 @@
         <v>10001242</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>61383</v>
@@ -1897,7 +1931,7 @@
       <c r="E19">
         <v>25.720094402102202</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>-100.203749984425</v>
       </c>
       <c r="G19" s="3">
@@ -1939,7 +1973,7 @@
         <v>10001420</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>135898</v>
@@ -1947,7 +1981,7 @@
       <c r="E20">
         <v>25.7068128822334</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>-100.368193073887</v>
       </c>
       <c r="G20" s="3">
@@ -1989,7 +2023,7 @@
         <v>10001110</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>136021</v>
@@ -1997,7 +2031,7 @@
       <c r="E21">
         <v>25.705437500364599</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>-100.369566223782</v>
       </c>
       <c r="G21" s="3">
@@ -2039,7 +2073,7 @@
         <v>10001248</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>149627</v>
@@ -2047,7 +2081,7 @@
       <c r="E22">
         <v>25.705436734901198</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>-100.368754896341</v>
       </c>
       <c r="G22" s="3">
@@ -2089,7 +2123,7 @@
         <v>10001229</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>66669</v>
@@ -2097,7 +2131,7 @@
       <c r="E23">
         <v>25.705075731071702</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>-100.224514031506</v>
       </c>
       <c r="G23" s="3">
@@ -2139,7 +2173,7 @@
         <v>1000137</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>146161</v>
@@ -2147,7 +2181,7 @@
       <c r="E24">
         <v>25.702765390650999</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>-100.36195612234</v>
       </c>
       <c r="G24" s="3">
@@ -2189,7 +2223,7 @@
         <v>10001231</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <v>138759</v>
@@ -2197,7 +2231,7 @@
       <c r="E25">
         <v>25.699850420769199</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>-100.354096487121</v>
       </c>
       <c r="G25" s="3">
@@ -2239,7 +2273,7 @@
         <v>10001134</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>135933</v>
@@ -2247,7 +2281,7 @@
       <c r="E26">
         <v>25.699148836203999</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <v>-100.350783279412</v>
       </c>
       <c r="G26" s="3">
@@ -2289,7 +2323,7 @@
         <v>10001237</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27">
         <v>131089</v>
@@ -2297,7 +2331,7 @@
       <c r="E27">
         <v>25.6981611305008</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <v>-100.355561431487</v>
       </c>
       <c r="G27" s="3">
@@ -2339,7 +2373,7 @@
         <v>10001114</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28">
         <v>149521</v>
@@ -2347,7 +2381,7 @@
       <c r="E28">
         <v>25.697894663009301</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="4">
         <v>-100.35778404494999</v>
       </c>
       <c r="G28" s="3">
@@ -2389,7 +2423,7 @@
         <v>1000119</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>75289</v>
@@ -2397,7 +2431,7 @@
       <c r="E29">
         <v>25.696058119251301</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="4">
         <v>-100.22399869659</v>
       </c>
       <c r="G29" s="3">
@@ -2439,7 +2473,7 @@
         <v>1000114</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>119287</v>
@@ -2447,7 +2481,7 @@
       <c r="E30">
         <v>25.690299331033302</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="4">
         <v>-100.32871945077601</v>
       </c>
       <c r="G30" s="3">
@@ -2489,7 +2523,7 @@
         <v>10001350</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31">
         <v>138741</v>
@@ -2497,7 +2531,7 @@
       <c r="E31">
         <v>25.6896868210722</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="4">
         <v>-100.344055890649</v>
       </c>
       <c r="G31" s="3">
@@ -2539,7 +2573,7 @@
         <v>10001141</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <v>97791</v>
@@ -2547,7 +2581,7 @@
       <c r="E32">
         <v>25.6885185242955</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="4">
         <v>-100.366950506827</v>
       </c>
       <c r="G32" s="3">
@@ -2589,7 +2623,7 @@
         <v>1000146</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33">
         <v>10684</v>
@@ -2597,7 +2631,7 @@
       <c r="E33">
         <v>25.687393049251401</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="4">
         <v>-100.311442288073</v>
       </c>
       <c r="G33" s="3">
@@ -2639,7 +2673,7 @@
         <v>10001339</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34">
         <v>18176</v>
@@ -2647,7 +2681,7 @@
       <c r="E34">
         <v>25.683101122344301</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="4">
         <v>-100.282866837407</v>
       </c>
       <c r="G34" s="3">
@@ -2689,7 +2723,7 @@
         <v>10001455</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2697,7 +2731,7 @@
       <c r="E35">
         <v>25.682639696219901</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="4">
         <v>-100.318158347135</v>
       </c>
       <c r="G35" s="3">
@@ -2739,7 +2773,7 @@
         <v>10001432</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36">
         <v>28200</v>
@@ -2747,7 +2781,7 @@
       <c r="E36">
         <v>25.682398087388201</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="4">
         <v>-100.30387423034701</v>
       </c>
       <c r="G36" s="3">
@@ -2789,7 +2823,7 @@
         <v>10001353</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2797,7 +2831,7 @@
       <c r="E37">
         <v>25.680707468131299</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="4">
         <v>-100.31214789682301</v>
       </c>
       <c r="G37" s="3">
@@ -2839,7 +2873,7 @@
         <v>10001128</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38">
         <v>11082</v>
@@ -2847,7 +2881,7 @@
       <c r="E38">
         <v>25.679081498398102</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="4">
         <v>-100.24587937791399</v>
       </c>
       <c r="G38" s="3">
@@ -2889,7 +2923,7 @@
         <v>1000112</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39">
         <v>19535</v>
@@ -2897,7 +2931,7 @@
       <c r="E39">
         <v>25.678125797706599</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="4">
         <v>-100.259484057018</v>
       </c>
       <c r="G39" s="3">
@@ -2939,7 +2973,7 @@
         <v>10001447</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40">
         <v>38837</v>
@@ -2947,7 +2981,7 @@
       <c r="E40">
         <v>25.677897924383998</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="4">
         <v>-100.241951457889</v>
       </c>
       <c r="G40" s="3">
@@ -2989,7 +3023,7 @@
         <v>10001418</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>20451</v>
@@ -2997,7 +3031,7 @@
       <c r="E41">
         <v>25.677749786426102</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="4">
         <v>-100.24903745410801</v>
       </c>
       <c r="G41" s="3">
@@ -3039,7 +3073,7 @@
         <v>10001130</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42">
         <v>45585</v>
@@ -3047,7 +3081,7 @@
       <c r="E42">
         <v>25.677059225566499</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="4">
         <v>-100.23017284786199</v>
       </c>
       <c r="G42" s="3">
@@ -3089,7 +3123,7 @@
         <v>10001125</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43">
         <v>2370</v>
@@ -3097,7 +3131,7 @@
       <c r="E43">
         <v>25.676881058122198</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="4">
         <v>-100.315413960249</v>
       </c>
       <c r="G43" s="3">
@@ -3139,7 +3173,7 @@
         <v>10001338</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44">
         <v>19385</v>
@@ -3147,7 +3181,7 @@
       <c r="E44">
         <v>25.6767670316164</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="4">
         <v>-100.251071856933</v>
       </c>
       <c r="G44" s="3">
@@ -3189,7 +3223,7 @@
         <v>10001446</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45">
         <v>96473</v>
@@ -3197,7 +3231,7 @@
       <c r="E45">
         <v>25.675804803762599</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="4">
         <v>-100.37362479987399</v>
       </c>
       <c r="G45" s="3">
@@ -3239,7 +3273,7 @@
         <v>10001321</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>49597</v>
@@ -3247,7 +3281,7 @@
       <c r="E46">
         <v>25.6743269589801</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="4">
         <v>-100.223624852947</v>
       </c>
       <c r="G46" s="3">
@@ -3289,7 +3323,7 @@
         <v>10001412</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>23706</v>
@@ -3297,7 +3331,7 @@
       <c r="E47">
         <v>25.673092347416901</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="4">
         <v>-100.230098914956</v>
       </c>
       <c r="G47" s="3">
@@ -3339,7 +3373,7 @@
         <v>10001240</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48">
         <v>6217</v>
@@ -3347,7 +3381,7 @@
       <c r="E48">
         <v>25.672448585966698</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="4">
         <v>-100.31775640740101</v>
       </c>
       <c r="G48" s="3">
@@ -3389,7 +3423,7 @@
         <v>10001144</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49">
         <v>56972</v>
@@ -3397,7 +3431,7 @@
       <c r="E49">
         <v>25.6692781900834</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="4">
         <v>-100.235860142498</v>
       </c>
       <c r="G49" s="3">
@@ -3439,7 +3473,7 @@
         <v>10001151</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3447,7 +3481,7 @@
       <c r="E50">
         <v>25.668249747258699</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="4">
         <v>-100.303948776743</v>
       </c>
       <c r="G50" s="3">
@@ -3489,7 +3523,7 @@
         <v>10001119</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51">
         <v>7348</v>
@@ -3497,7 +3531,7 @@
       <c r="E51">
         <v>25.668106191863099</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="4">
         <v>-100.317986769461</v>
       </c>
       <c r="G51" s="3">
@@ -3539,7 +3573,7 @@
         <v>10001154</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3547,7 +3581,7 @@
       <c r="E52">
         <v>25.665895272110902</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="4">
         <v>-100.299721389827</v>
       </c>
       <c r="G52" s="3">
@@ -3589,7 +3623,7 @@
         <v>10001133</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53">
         <v>63773</v>
@@ -3597,7 +3631,7 @@
       <c r="E53">
         <v>25.664838790760498</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="4">
         <v>-100.237429048636</v>
       </c>
       <c r="G53" s="3">
@@ -3639,7 +3673,7 @@
         <v>10001152</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3647,7 +3681,7 @@
       <c r="E54">
         <v>25.653001850727499</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="4">
         <v>-100.29197929797699</v>
       </c>
       <c r="G54" s="3">
@@ -3689,7 +3723,7 @@
         <v>10001223</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55">
         <v>8058</v>
@@ -3697,7 +3731,7 @@
       <c r="E55">
         <v>25.619191131447</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="4">
         <v>-100.270167343629</v>
       </c>
       <c r="G55" s="3">
@@ -3739,7 +3773,7 @@
         <v>1000143</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56">
         <v>2022</v>
@@ -3747,7 +3781,7 @@
       <c r="E56">
         <v>25.597486653749399</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="4">
         <v>-100.26099635959299</v>
       </c>
       <c r="G56" s="3">
@@ -3783,7 +3817,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G57" s="2">
         <f>COUNTIFS(G2:H56,"&lt;9650")</f>
@@ -3813,7 +3847,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G58" s="1">
         <f>COUNTIFS(G2:G56,"&lt;9650")</f>
@@ -3856,12 +3890,91 @@
         <v>30</v>
       </c>
     </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63">
+        <v>32</v>
+      </c>
+      <c r="H63">
+        <v>31</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64">
+        <v>44</v>
+      </c>
+      <c r="H64">
+        <v>14</v>
+      </c>
+      <c r="I64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65">
+        <v>27</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66">
+        <v>22</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67">
+        <v>43</v>
+      </c>
+      <c r="H67">
+        <v>13</v>
+      </c>
+      <c r="I67">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P56" xr:uid="{256BE515-6D50-4CCC-A046-2D4F5EC20B29}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P56">
-      <sortCondition ref="A1:A56"/>
-    </sortState>
-  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="I57:J57"/>
@@ -3881,6 +3994,110 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B8402E-D991-453F-A8E0-A334D74762CB}">
+  <dimension ref="C34:F39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D36:D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44</v>
+      </c>
+      <c r="E35" s="1">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43</v>
+      </c>
+      <c r="E36" s="1">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1">
+        <v>32</v>
+      </c>
+      <c r="E37" s="1">
+        <v>31</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="1">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="1">
+        <v>22</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
